--- a/frontiers_revision/data/lmb_config.xlsx
+++ b/frontiers_revision/data/lmb_config.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donne\git\growthcurves\frontiers_revision\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92186C1-D027-4A0B-95F3-74F30E9FF965}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="lmb_config" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="lmb_config" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,100 +25,85 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="22">
   <si>
-    <t xml:space="preserve">sub_type</t>
+    <t>sub_type</t>
   </si>
   <si>
-    <t xml:space="preserve">record_id</t>
+    <t>record_id</t>
   </si>
   <si>
-    <t xml:space="preserve">note</t>
+    <t>note</t>
   </si>
   <si>
-    <t xml:space="preserve">all</t>
+    <t>all</t>
   </si>
   <si>
-    <t xml:space="preserve">case_cntrl</t>
+    <t>case_cntrl</t>
   </si>
   <si>
-    <t xml:space="preserve">cntrl</t>
+    <t>cntrl</t>
   </si>
   <si>
-    <t xml:space="preserve">cntrl_dx</t>
+    <t>cntrl_dx</t>
   </si>
   <si>
-    <t xml:space="preserve">cntrl_typ</t>
+    <t>cntrl_typ</t>
   </si>
   <si>
-    <t xml:space="preserve">int_exclude</t>
+    <t>int_exclude</t>
   </si>
   <si>
-    <t xml:space="preserve">201_GS</t>
+    <t>201_GS</t>
   </si>
   <si>
-    <t xml:space="preserve">int_include</t>
+    <t>int_include</t>
   </si>
   <si>
-    <t xml:space="preserve">lmb_cntrl</t>
+    <t>lmb_cntrl</t>
   </si>
   <si>
-    <t xml:space="preserve">raveo</t>
+    <t>raveo</t>
   </si>
   <si>
-    <t xml:space="preserve">summer16</t>
+    <t>summer16</t>
   </si>
   <si>
-    <t xml:space="preserve">summer17</t>
+    <t>summer17</t>
   </si>
   <si>
-    <t xml:space="preserve">summer</t>
+    <t>summer</t>
   </si>
   <si>
-    <t xml:space="preserve">first6</t>
+    <t>first6</t>
   </si>
   <si>
-    <t xml:space="preserve">summer16_followup</t>
+    <t>summer16_followup</t>
   </si>
   <si>
-    <t xml:space="preserve">lmb_all</t>
+    <t>lmb_all</t>
   </si>
   <si>
-    <t xml:space="preserve">cntrl_dys</t>
+    <t>cntrl_dys</t>
   </si>
   <si>
-    <t xml:space="preserve">oneyear_followup</t>
+    <t>oneyear_followup</t>
+  </si>
+  <si>
+    <t>int_dxdef</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -125,7 +115,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -133,2950 +123,3425 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C359"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C385"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G138" activeCellId="0" sqref="G138"/>
+    <sheetView tabSelected="1" topLeftCell="A358" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C378" sqref="C378"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
+    <col min="1" max="1" width="11.46484375"/>
+    <col min="2" max="1025" width="8.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="0" t="n">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="0" t="n">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
         <v>9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="n">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>35</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="0" t="n">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>37</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="0" t="n">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
         <v>44</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="0" t="n">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
         <v>45</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="0" t="n">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
         <v>46</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="0" t="n">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
         <v>49</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="0" t="n">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
         <v>51</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="0" t="n">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
         <v>52</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="0" t="n">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
         <v>57</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="0" t="n">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
         <v>74</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="0" t="n">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14">
         <v>81</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="0" t="n">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15">
         <v>82</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="0" t="n">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
         <v>83</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="0" t="n">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
         <v>84</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="0" t="n">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18">
         <v>228</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="0" t="n">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19">
         <v>234</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="0" t="n">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20">
         <v>235</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="0" t="n">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21">
         <v>237</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="0" t="n">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22">
         <v>248</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="0" t="n">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23">
         <v>75</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="0" t="n">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24">
         <v>76</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="0" t="n">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25">
         <v>77</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="0" t="n">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26">
         <v>78</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="0" t="n">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27">
         <v>79</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="0" t="n">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28">
         <v>80</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="0" t="n">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29">
         <v>81</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="0" t="n">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30">
         <v>5</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="0" t="n">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31">
         <v>19</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="0" t="n">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32">
         <v>21</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="0" t="n">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33">
         <v>23</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="0" t="n">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34">
         <v>25</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" s="0" t="n">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35">
         <v>26</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" s="0" t="n">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36">
         <v>29</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="0" t="n">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37">
         <v>32</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B38" s="0" t="n">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38">
         <v>33</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" s="0" t="n">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39">
         <v>36</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40" s="0" t="n">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40">
         <v>64</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="0" t="n">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41">
         <v>66</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42" s="0" t="n">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42">
         <v>70</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" s="0" t="n">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43">
         <v>72</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44" s="0" t="n">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44">
         <v>275</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45" s="0" t="n">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45">
         <v>72</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B46" s="0" t="n">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46">
         <v>218</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B47" s="0" t="n">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47">
         <v>219</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B48" s="0" t="n">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48">
         <v>267</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B49" s="0" t="n">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49">
         <v>310</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B50" s="0" t="n">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50">
         <v>355</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B51" s="0" t="n">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51">
         <v>357</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B52" s="0" t="n">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52">
         <v>387</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B53" s="0" t="n">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53">
         <v>420</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B54" s="0" t="n">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54">
         <v>423</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B55" s="0" t="n">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55">
         <v>205</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B56" s="0" t="n">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56">
         <v>227</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B57" s="0" t="n">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57">
         <v>275</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B58" s="0" t="n">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58">
         <v>396</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B59" s="0" t="n">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59">
         <v>486</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B60" s="0" t="n">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60">
         <v>217</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B61" s="0" t="n">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61">
         <v>319</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
         <v>4</v>
       </c>
-      <c r="B62" s="0" t="n">
+      <c r="B62">
         <v>72</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
         <v>4</v>
       </c>
-      <c r="B63" s="0" t="n">
+      <c r="B63">
         <v>29</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
         <v>4</v>
       </c>
-      <c r="B64" s="0" t="n">
+      <c r="B64">
         <v>26</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
         <v>4</v>
       </c>
-      <c r="B65" s="0" t="n">
+      <c r="B65">
         <v>66</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
         <v>4</v>
       </c>
-      <c r="B66" s="0" t="n">
+      <c r="B66">
         <v>23</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
         <v>4</v>
       </c>
-      <c r="B67" s="0" t="n">
+      <c r="B67">
         <v>70</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
         <v>4</v>
       </c>
-      <c r="B68" s="0" t="n">
+      <c r="B68">
         <v>275</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
         <v>4</v>
       </c>
-      <c r="B69" s="0" t="n">
+      <c r="B69">
         <v>33</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
         <v>4</v>
       </c>
-      <c r="B70" s="0" t="n">
+      <c r="B70">
         <v>2</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
         <v>4</v>
       </c>
-      <c r="B71" s="0" t="n">
+      <c r="B71">
         <v>9</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
         <v>4</v>
       </c>
-      <c r="B72" s="0" t="n">
+      <c r="B72">
         <v>35</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
         <v>4</v>
       </c>
-      <c r="B73" s="0" t="n">
+      <c r="B73">
         <v>37</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
         <v>4</v>
       </c>
-      <c r="B74" s="0" t="n">
+      <c r="B74">
         <v>44</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
         <v>4</v>
       </c>
-      <c r="B75" s="0" t="n">
+      <c r="B75">
         <v>45</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
         <v>4</v>
       </c>
-      <c r="B76" s="0" t="n">
+      <c r="B76">
         <v>46</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
         <v>4</v>
       </c>
-      <c r="B77" s="0" t="n">
+      <c r="B77">
         <v>49</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
         <v>4</v>
       </c>
-      <c r="B78" s="0" t="n">
+      <c r="B78">
         <v>51</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
         <v>4</v>
       </c>
-      <c r="B79" s="0" t="n">
+      <c r="B79">
         <v>52</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
         <v>4</v>
       </c>
-      <c r="B80" s="0" t="n">
+      <c r="B80">
         <v>57</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
         <v>4</v>
       </c>
-      <c r="B81" s="0" t="n">
+      <c r="B81">
         <v>81</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
         <v>4</v>
       </c>
-      <c r="B82" s="0" t="n">
+      <c r="B82">
         <v>82</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
         <v>4</v>
       </c>
-      <c r="B83" s="0" t="n">
+      <c r="B83">
         <v>83</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
         <v>4</v>
       </c>
-      <c r="B84" s="0" t="n">
+      <c r="B84">
         <v>84</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
         <v>4</v>
       </c>
-      <c r="B85" s="0" t="n">
+      <c r="B85">
         <v>228</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
         <v>4</v>
       </c>
-      <c r="B86" s="0" t="n">
+      <c r="B86">
         <v>234</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
         <v>4</v>
       </c>
-      <c r="B87" s="0" t="n">
+      <c r="B87">
         <v>235</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
         <v>4</v>
       </c>
-      <c r="B88" s="0" t="n">
+      <c r="B88">
         <v>237</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
         <v>4</v>
       </c>
-      <c r="B89" s="0" t="n">
+      <c r="B89">
         <v>248</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
         <v>4</v>
       </c>
-      <c r="B90" s="0" t="n">
+      <c r="B90">
         <v>74</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
         <v>4</v>
       </c>
-      <c r="B91" s="0" t="n">
+      <c r="B91">
         <v>75</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
         <v>4</v>
       </c>
-      <c r="B92" s="0" t="n">
+      <c r="B92">
         <v>76</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
         <v>4</v>
       </c>
-      <c r="B93" s="0" t="n">
+      <c r="B93">
         <v>77</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
         <v>4</v>
       </c>
-      <c r="B94" s="0" t="n">
+      <c r="B94">
         <v>78</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
         <v>4</v>
       </c>
-      <c r="B95" s="0" t="n">
+      <c r="B95">
         <v>79</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
         <v>4</v>
       </c>
-      <c r="B96" s="0" t="n">
+      <c r="B96">
         <v>80</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
         <v>4</v>
       </c>
-      <c r="B97" s="0" t="n">
+      <c r="B97">
         <v>81</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
         <v>5</v>
       </c>
-      <c r="B98" s="0" t="n">
+      <c r="B98">
         <v>5</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
         <v>5</v>
       </c>
-      <c r="B99" s="0" t="n">
+      <c r="B99">
         <v>19</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
         <v>5</v>
       </c>
-      <c r="B100" s="0" t="n">
+      <c r="B100">
         <v>21</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
         <v>5</v>
       </c>
-      <c r="B101" s="0" t="n">
+      <c r="B101">
         <v>23</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
         <v>5</v>
       </c>
-      <c r="B102" s="0" t="n">
+      <c r="B102">
         <v>25</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
         <v>5</v>
       </c>
-      <c r="B103" s="0" t="n">
+      <c r="B103">
         <v>26</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
         <v>5</v>
       </c>
-      <c r="B104" s="0" t="n">
+      <c r="B104">
         <v>29</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
         <v>5</v>
       </c>
-      <c r="B105" s="0" t="n">
+      <c r="B105">
         <v>32</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
         <v>5</v>
       </c>
-      <c r="B106" s="0" t="n">
+      <c r="B106">
         <v>33</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
         <v>5</v>
       </c>
-      <c r="B107" s="0" t="n">
+      <c r="B107">
         <v>36</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
         <v>5</v>
       </c>
-      <c r="B108" s="0" t="n">
+      <c r="B108">
         <v>64</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
         <v>5</v>
       </c>
-      <c r="B109" s="0" t="n">
+      <c r="B109">
         <v>66</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
         <v>5</v>
       </c>
-      <c r="B110" s="0" t="n">
+      <c r="B110">
         <v>70</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
         <v>5</v>
       </c>
-      <c r="B111" s="0" t="n">
+      <c r="B111">
         <v>72</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
         <v>5</v>
       </c>
-      <c r="B112" s="0" t="n">
+      <c r="B112">
         <v>275</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
         <v>5</v>
       </c>
-      <c r="B113" s="0" t="n">
+      <c r="B113">
         <v>72</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
         <v>5</v>
       </c>
-      <c r="B114" s="0" t="n">
+      <c r="B114">
         <v>205</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
         <v>5</v>
       </c>
-      <c r="B115" s="0" t="n">
+      <c r="B115">
         <v>227</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
         <v>5</v>
       </c>
-      <c r="B116" s="0" t="n">
+      <c r="B116">
         <v>275</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
         <v>5</v>
       </c>
-      <c r="B117" s="0" t="n">
+      <c r="B117">
         <v>396</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
         <v>5</v>
       </c>
-      <c r="B118" s="0" t="n">
+      <c r="B118">
         <v>486</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A119" t="s">
         <v>5</v>
       </c>
-      <c r="B119" s="0" t="n">
+      <c r="B119">
         <v>217</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A120" t="s">
         <v>5</v>
       </c>
-      <c r="B120" s="0" t="n">
+      <c r="B120">
         <v>319</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
         <v>6</v>
       </c>
-      <c r="B121" s="0" t="n">
+      <c r="B121">
         <v>72</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A122" t="s">
         <v>6</v>
       </c>
-      <c r="B122" s="0" t="n">
+      <c r="B122">
         <v>29</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A123" t="s">
         <v>6</v>
       </c>
-      <c r="B123" s="0" t="n">
+      <c r="B123">
         <v>26</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A124" t="s">
         <v>6</v>
       </c>
-      <c r="B124" s="0" t="n">
+      <c r="B124">
         <v>66</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A125" t="s">
         <v>6</v>
       </c>
-      <c r="B125" s="0" t="n">
+      <c r="B125">
         <v>23</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A126" t="s">
         <v>6</v>
       </c>
-      <c r="B126" s="0" t="n">
+      <c r="B126">
         <v>70</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A127" t="s">
         <v>6</v>
       </c>
-      <c r="B127" s="0" t="n">
+      <c r="B127">
         <v>33</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A128" t="s">
         <v>6</v>
       </c>
-      <c r="B128" s="0" t="n">
+      <c r="B128">
         <v>227</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A129" t="s">
         <v>6</v>
       </c>
-      <c r="B129" s="0" t="n">
+      <c r="B129">
         <v>275</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A130" t="s">
         <v>6</v>
       </c>
-      <c r="B130" s="0" t="n">
+      <c r="B130">
         <v>486</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A131" t="s">
         <v>6</v>
       </c>
-      <c r="B131" s="0" t="n">
+      <c r="B131">
         <v>1041</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A132" t="s">
         <v>6</v>
       </c>
-      <c r="B132" s="0" t="n">
+      <c r="B132">
         <v>952</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A133" t="s">
         <v>6</v>
       </c>
-      <c r="B133" s="0" t="n">
+      <c r="B133">
         <v>955</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A134" t="s">
         <v>6</v>
       </c>
-      <c r="B134" s="0" t="n">
+      <c r="B134">
         <v>981</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A135" t="s">
         <v>6</v>
       </c>
-      <c r="B135" s="0" t="n">
+      <c r="B135">
         <v>951</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A136" t="s">
         <v>6</v>
       </c>
-      <c r="B136" s="0" t="n">
+      <c r="B136">
         <v>946</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A137" t="s">
         <v>7</v>
       </c>
-      <c r="B137" s="0" t="n">
+      <c r="B137">
         <v>32</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A138" t="s">
         <v>7</v>
       </c>
-      <c r="B138" s="0" t="n">
+      <c r="B138">
         <v>5</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A139" t="s">
         <v>7</v>
       </c>
-      <c r="B139" s="0" t="n">
+      <c r="B139">
         <v>19</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A140" t="s">
         <v>7</v>
       </c>
-      <c r="B140" s="0" t="n">
+      <c r="B140">
         <v>21</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A141" t="s">
         <v>7</v>
       </c>
-      <c r="B141" s="0" t="n">
+      <c r="B141">
         <v>36</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A142" t="s">
         <v>7</v>
       </c>
-      <c r="B142" s="0" t="n">
+      <c r="B142">
         <v>25</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A143" t="s">
         <v>7</v>
       </c>
-      <c r="B143" s="0" t="n">
+      <c r="B143">
         <v>64</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A144" t="s">
         <v>7</v>
       </c>
-      <c r="B144" s="0" t="n">
+      <c r="B144">
         <v>205</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A145" t="s">
         <v>7</v>
       </c>
-      <c r="B145" s="0" t="n">
+      <c r="B145">
         <v>396</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A146" t="s">
         <v>7</v>
       </c>
-      <c r="B146" s="0" t="n">
+      <c r="B146">
         <v>217</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A147" t="s">
         <v>7</v>
       </c>
-      <c r="B147" s="0" t="n">
+      <c r="B147">
         <v>319</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="s">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A148" t="s">
         <v>8</v>
       </c>
-      <c r="B148" s="0" t="n">
+      <c r="B148">
         <v>75</v>
       </c>
-      <c r="C148" s="0" t="s">
+      <c r="C148" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A149" t="s">
         <v>10</v>
       </c>
-      <c r="B149" s="0" t="n">
+      <c r="B149">
         <v>2</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="s">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A150" t="s">
         <v>10</v>
       </c>
-      <c r="B150" s="0" t="n">
+      <c r="B150">
         <v>9</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="s">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A151" t="s">
         <v>10</v>
       </c>
-      <c r="B151" s="0" t="n">
+      <c r="B151">
         <v>35</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="s">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A152" t="s">
         <v>10</v>
       </c>
-      <c r="B152" s="0" t="n">
+      <c r="B152">
         <v>37</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="s">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A153" t="s">
         <v>10</v>
       </c>
-      <c r="B153" s="0" t="n">
+      <c r="B153">
         <v>44</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="s">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A154" t="s">
         <v>10</v>
       </c>
-      <c r="B154" s="0" t="n">
+      <c r="B154">
         <v>45</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="s">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A155" t="s">
         <v>10</v>
       </c>
-      <c r="B155" s="0" t="n">
+      <c r="B155">
         <v>46</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="s">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A156" t="s">
         <v>10</v>
       </c>
-      <c r="B156" s="0" t="n">
+      <c r="B156">
         <v>49</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="s">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A157" t="s">
         <v>10</v>
       </c>
-      <c r="B157" s="0" t="n">
+      <c r="B157">
         <v>51</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="s">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A158" t="s">
         <v>10</v>
       </c>
-      <c r="B158" s="0" t="n">
+      <c r="B158">
         <v>52</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A159" t="s">
         <v>10</v>
       </c>
-      <c r="B159" s="0" t="n">
+      <c r="B159">
         <v>57</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="s">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A160" t="s">
         <v>10</v>
       </c>
-      <c r="B160" s="0" t="n">
+      <c r="B160">
         <v>81</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0" t="s">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A161" t="s">
         <v>10</v>
       </c>
-      <c r="B161" s="0" t="n">
+      <c r="B161">
         <v>82</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="s">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A162" t="s">
         <v>10</v>
       </c>
-      <c r="B162" s="0" t="n">
+      <c r="B162">
         <v>83</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0" t="s">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A163" t="s">
         <v>10</v>
       </c>
-      <c r="B163" s="0" t="n">
+      <c r="B163">
         <v>84</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0" t="s">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A164" t="s">
         <v>10</v>
       </c>
-      <c r="B164" s="0" t="n">
+      <c r="B164">
         <v>228</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0" t="s">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A165" t="s">
         <v>10</v>
       </c>
-      <c r="B165" s="0" t="n">
+      <c r="B165">
         <v>234</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0" t="s">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A166" t="s">
         <v>10</v>
       </c>
-      <c r="B166" s="0" t="n">
+      <c r="B166">
         <v>235</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0" t="s">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A167" t="s">
         <v>10</v>
       </c>
-      <c r="B167" s="0" t="n">
+      <c r="B167">
         <v>237</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0" t="s">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A168" t="s">
         <v>10</v>
       </c>
-      <c r="B168" s="0" t="n">
+      <c r="B168">
         <v>248</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0" t="s">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A169" t="s">
         <v>10</v>
       </c>
-      <c r="B169" s="0" t="n">
+      <c r="B169">
         <v>72</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="s">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A170" t="s">
         <v>10</v>
       </c>
-      <c r="B170" s="0" t="n">
+      <c r="B170">
         <v>218</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="s">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A171" t="s">
         <v>10</v>
       </c>
-      <c r="B171" s="0" t="n">
+      <c r="B171">
         <v>219</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="s">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A172" t="s">
         <v>10</v>
       </c>
-      <c r="B172" s="0" t="n">
+      <c r="B172">
         <v>267</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0" t="s">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A173" t="s">
         <v>10</v>
       </c>
-      <c r="B173" s="0" t="n">
+      <c r="B173">
         <v>275</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="s">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A174" t="s">
         <v>10</v>
       </c>
-      <c r="B174" s="0" t="n">
+      <c r="B174">
         <v>310</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0" t="s">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A175" t="s">
         <v>10</v>
       </c>
-      <c r="B175" s="0" t="n">
+      <c r="B175">
         <v>355</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0" t="s">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A176" t="s">
         <v>10</v>
       </c>
-      <c r="B176" s="0" t="n">
+      <c r="B176">
         <v>357</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0" t="s">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A177" t="s">
         <v>10</v>
       </c>
-      <c r="B177" s="0" t="n">
+      <c r="B177">
         <v>387</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0" t="s">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A178" t="s">
         <v>10</v>
       </c>
-      <c r="B178" s="0" t="n">
+      <c r="B178">
         <v>420</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0" t="s">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A179" t="s">
         <v>10</v>
       </c>
-      <c r="B179" s="0" t="n">
+      <c r="B179">
         <v>423</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0" t="s">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A180" t="s">
         <v>11</v>
       </c>
-      <c r="B180" s="0" t="n">
+      <c r="B180">
         <v>5</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0" t="s">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A181" t="s">
         <v>11</v>
       </c>
-      <c r="B181" s="0" t="n">
+      <c r="B181">
         <v>21</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0" t="s">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A182" t="s">
         <v>11</v>
       </c>
-      <c r="B182" s="0" t="n">
+      <c r="B182">
         <v>23</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0" t="s">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A183" t="s">
         <v>11</v>
       </c>
-      <c r="B183" s="0" t="n">
+      <c r="B183">
         <v>25</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="0" t="s">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A184" t="s">
         <v>11</v>
       </c>
-      <c r="B184" s="0" t="n">
+      <c r="B184">
         <v>26</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0" t="s">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A185" t="s">
         <v>11</v>
       </c>
-      <c r="B185" s="0" t="n">
+      <c r="B185">
         <v>36</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="0" t="s">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A186" t="s">
         <v>11</v>
       </c>
-      <c r="B186" s="0" t="n">
+      <c r="B186">
         <v>64</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="0" t="s">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A187" t="s">
         <v>11</v>
       </c>
-      <c r="B187" s="0" t="n">
+      <c r="B187">
         <v>66</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="0" t="s">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A188" t="s">
         <v>11</v>
       </c>
-      <c r="B188" s="0" t="n">
+      <c r="B188">
         <v>70</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="0" t="s">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A189" t="s">
         <v>11</v>
       </c>
-      <c r="B189" s="0" t="n">
+      <c r="B189">
         <v>72</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="0" t="s">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A190" t="s">
         <v>11</v>
       </c>
-      <c r="B190" s="0" t="n">
+      <c r="B190">
         <v>275</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="0" t="s">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A191" t="s">
         <v>12</v>
       </c>
-      <c r="B191" s="0" t="n">
+      <c r="B191">
         <v>19</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="0" t="s">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A192" t="s">
         <v>12</v>
       </c>
-      <c r="B192" s="0" t="n">
+      <c r="B192">
         <v>29</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="0" t="s">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A193" t="s">
         <v>12</v>
       </c>
-      <c r="B193" s="0" t="n">
+      <c r="B193">
         <v>32</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="0" t="s">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A194" t="s">
         <v>12</v>
       </c>
-      <c r="B194" s="0" t="n">
+      <c r="B194">
         <v>33</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="0" t="s">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A195" t="s">
         <v>13</v>
       </c>
-      <c r="B195" s="0" t="n">
+      <c r="B195">
         <v>2</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="0" t="s">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A196" t="s">
         <v>13</v>
       </c>
-      <c r="B196" s="0" t="n">
+      <c r="B196">
         <v>9</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="0" t="s">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A197" t="s">
         <v>13</v>
       </c>
-      <c r="B197" s="0" t="n">
+      <c r="B197">
         <v>35</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="0" t="s">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A198" t="s">
         <v>13</v>
       </c>
-      <c r="B198" s="0" t="n">
+      <c r="B198">
         <v>37</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="0" t="s">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A199" t="s">
         <v>13</v>
       </c>
-      <c r="B199" s="0" t="n">
+      <c r="B199">
         <v>44</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="s">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A200" t="s">
         <v>13</v>
       </c>
-      <c r="B200" s="0" t="n">
+      <c r="B200">
         <v>45</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="0" t="s">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A201" t="s">
         <v>13</v>
       </c>
-      <c r="B201" s="0" t="n">
+      <c r="B201">
         <v>46</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="0" t="s">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A202" t="s">
         <v>13</v>
       </c>
-      <c r="B202" s="0" t="n">
+      <c r="B202">
         <v>49</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="0" t="s">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A203" t="s">
         <v>13</v>
       </c>
-      <c r="B203" s="0" t="n">
+      <c r="B203">
         <v>51</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="0" t="s">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A204" t="s">
         <v>13</v>
       </c>
-      <c r="B204" s="0" t="n">
+      <c r="B204">
         <v>52</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="0" t="s">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A205" t="s">
         <v>13</v>
       </c>
-      <c r="B205" s="0" t="n">
+      <c r="B205">
         <v>57</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="0" t="s">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A206" t="s">
         <v>13</v>
       </c>
-      <c r="B206" s="0" t="n">
+      <c r="B206">
         <v>81</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="0" t="s">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A207" t="s">
         <v>13</v>
       </c>
-      <c r="B207" s="0" t="n">
+      <c r="B207">
         <v>82</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="0" t="s">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A208" t="s">
         <v>13</v>
       </c>
-      <c r="B208" s="0" t="n">
+      <c r="B208">
         <v>83</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="0" t="s">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A209" t="s">
         <v>13</v>
       </c>
-      <c r="B209" s="0" t="n">
+      <c r="B209">
         <v>84</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="0" t="s">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A210" t="s">
         <v>13</v>
       </c>
-      <c r="B210" s="0" t="n">
+      <c r="B210">
         <v>228</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="0" t="s">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A211" t="s">
         <v>13</v>
       </c>
-      <c r="B211" s="0" t="n">
+      <c r="B211">
         <v>234</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="0" t="s">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A212" t="s">
         <v>13</v>
       </c>
-      <c r="B212" s="0" t="n">
+      <c r="B212">
         <v>235</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="0" t="s">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A213" t="s">
         <v>13</v>
       </c>
-      <c r="B213" s="0" t="n">
+      <c r="B213">
         <v>237</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="0" t="s">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A214" t="s">
         <v>13</v>
       </c>
-      <c r="B214" s="0" t="n">
+      <c r="B214">
         <v>248</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="0" t="s">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A215" t="s">
         <v>14</v>
       </c>
-      <c r="B215" s="0" t="n">
+      <c r="B215">
         <v>72</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="0" t="s">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A216" t="s">
         <v>14</v>
       </c>
-      <c r="B216" s="0" t="n">
+      <c r="B216">
         <v>218</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="0" t="s">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A217" t="s">
         <v>14</v>
       </c>
-      <c r="B217" s="0" t="n">
+      <c r="B217">
         <v>219</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="0" t="s">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A218" t="s">
         <v>14</v>
       </c>
-      <c r="B218" s="0" t="n">
+      <c r="B218">
         <v>267</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="0" t="s">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A219" t="s">
         <v>14</v>
       </c>
-      <c r="B219" s="0" t="n">
+      <c r="B219">
         <v>275</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="0" t="s">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A220" t="s">
         <v>14</v>
       </c>
-      <c r="B220" s="0" t="n">
+      <c r="B220">
         <v>310</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="0" t="s">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A221" t="s">
         <v>14</v>
       </c>
-      <c r="B221" s="0" t="n">
+      <c r="B221">
         <v>355</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="0" t="s">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A222" t="s">
         <v>14</v>
       </c>
-      <c r="B222" s="0" t="n">
+      <c r="B222">
         <v>357</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="0" t="s">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A223" t="s">
         <v>14</v>
       </c>
-      <c r="B223" s="0" t="n">
+      <c r="B223">
         <v>387</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="0" t="s">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A224" t="s">
         <v>14</v>
       </c>
-      <c r="B224" s="0" t="n">
+      <c r="B224">
         <v>420</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="0" t="s">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A225" t="s">
         <v>14</v>
       </c>
-      <c r="B225" s="0" t="n">
+      <c r="B225">
         <v>423</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="0" t="s">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A226" t="s">
         <v>15</v>
       </c>
-      <c r="B226" s="0" t="n">
+      <c r="B226">
         <v>2</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="0" t="s">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A227" t="s">
         <v>15</v>
       </c>
-      <c r="B227" s="0" t="n">
+      <c r="B227">
         <v>9</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="0" t="s">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A228" t="s">
         <v>15</v>
       </c>
-      <c r="B228" s="0" t="n">
+      <c r="B228">
         <v>35</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="0" t="s">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A229" t="s">
         <v>15</v>
       </c>
-      <c r="B229" s="0" t="n">
+      <c r="B229">
         <v>37</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="0" t="s">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A230" t="s">
         <v>15</v>
       </c>
-      <c r="B230" s="0" t="n">
+      <c r="B230">
         <v>44</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="0" t="s">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A231" t="s">
         <v>15</v>
       </c>
-      <c r="B231" s="0" t="n">
+      <c r="B231">
         <v>45</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="0" t="s">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A232" t="s">
         <v>15</v>
       </c>
-      <c r="B232" s="0" t="n">
+      <c r="B232">
         <v>46</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="0" t="s">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A233" t="s">
         <v>15</v>
       </c>
-      <c r="B233" s="0" t="n">
+      <c r="B233">
         <v>49</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="0" t="s">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A234" t="s">
         <v>15</v>
       </c>
-      <c r="B234" s="0" t="n">
+      <c r="B234">
         <v>51</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="0" t="s">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A235" t="s">
         <v>15</v>
       </c>
-      <c r="B235" s="0" t="n">
+      <c r="B235">
         <v>52</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="0" t="s">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A236" t="s">
         <v>15</v>
       </c>
-      <c r="B236" s="0" t="n">
+      <c r="B236">
         <v>57</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="0" t="s">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A237" t="s">
         <v>15</v>
       </c>
-      <c r="B237" s="0" t="n">
+      <c r="B237">
         <v>72</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="0" t="s">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A238" t="s">
         <v>15</v>
       </c>
-      <c r="B238" s="0" t="n">
+      <c r="B238">
         <v>81</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="0" t="s">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A239" t="s">
         <v>15</v>
       </c>
-      <c r="B239" s="0" t="n">
+      <c r="B239">
         <v>82</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="0" t="s">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A240" t="s">
         <v>15</v>
       </c>
-      <c r="B240" s="0" t="n">
+      <c r="B240">
         <v>83</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="0" t="s">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A241" t="s">
         <v>15</v>
       </c>
-      <c r="B241" s="0" t="n">
+      <c r="B241">
         <v>84</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="0" t="s">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A242" t="s">
         <v>15</v>
       </c>
-      <c r="B242" s="0" t="n">
+      <c r="B242">
         <v>218</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="0" t="s">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A243" t="s">
         <v>15</v>
       </c>
-      <c r="B243" s="0" t="n">
+      <c r="B243">
         <v>219</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="0" t="s">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A244" t="s">
         <v>15</v>
       </c>
-      <c r="B244" s="0" t="n">
+      <c r="B244">
         <v>228</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="0" t="s">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A245" t="s">
         <v>15</v>
       </c>
-      <c r="B245" s="0" t="n">
+      <c r="B245">
         <v>234</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="0" t="s">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A246" t="s">
         <v>15</v>
       </c>
-      <c r="B246" s="0" t="n">
+      <c r="B246">
         <v>235</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="0" t="s">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A247" t="s">
         <v>15</v>
       </c>
-      <c r="B247" s="0" t="n">
+      <c r="B247">
         <v>237</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="0" t="s">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A248" t="s">
         <v>15</v>
       </c>
-      <c r="B248" s="0" t="n">
+      <c r="B248">
         <v>248</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="0" t="s">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A249" t="s">
         <v>15</v>
       </c>
-      <c r="B249" s="0" t="n">
+      <c r="B249">
         <v>267</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="0" t="s">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A250" t="s">
         <v>15</v>
       </c>
-      <c r="B250" s="0" t="n">
+      <c r="B250">
         <v>275</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="0" t="s">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A251" t="s">
         <v>15</v>
       </c>
-      <c r="B251" s="0" t="n">
+      <c r="B251">
         <v>310</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="0" t="s">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A252" t="s">
         <v>15</v>
       </c>
-      <c r="B252" s="0" t="n">
+      <c r="B252">
         <v>355</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="0" t="s">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A253" t="s">
         <v>15</v>
       </c>
-      <c r="B253" s="0" t="n">
+      <c r="B253">
         <v>357</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="0" t="s">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A254" t="s">
         <v>15</v>
       </c>
-      <c r="B254" s="0" t="n">
+      <c r="B254">
         <v>387</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="0" t="s">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A255" t="s">
         <v>15</v>
       </c>
-      <c r="B255" s="0" t="n">
+      <c r="B255">
         <v>420</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="0" t="s">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A256" t="s">
         <v>15</v>
       </c>
-      <c r="B256" s="0" t="n">
+      <c r="B256">
         <v>423</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="0" t="s">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A257" t="s">
         <v>16</v>
       </c>
-      <c r="B257" s="0" t="n">
+      <c r="B257">
         <v>75</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="0" t="s">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A258" t="s">
         <v>16</v>
       </c>
-      <c r="B258" s="0" t="n">
+      <c r="B258">
         <v>76</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="0" t="s">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A259" t="s">
         <v>16</v>
       </c>
-      <c r="B259" s="0" t="n">
+      <c r="B259">
         <v>77</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="0" t="s">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A260" t="s">
         <v>16</v>
       </c>
-      <c r="B260" s="0" t="n">
+      <c r="B260">
         <v>78</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="0" t="s">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A261" t="s">
         <v>16</v>
       </c>
-      <c r="B261" s="0" t="n">
+      <c r="B261">
         <v>79</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="0" t="s">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A262" t="s">
         <v>16</v>
       </c>
-      <c r="B262" s="0" t="n">
+      <c r="B262">
         <v>80</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="0" t="s">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A263" t="s">
         <v>17</v>
       </c>
-      <c r="B263" s="0" t="n">
+      <c r="B263">
         <v>2</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="0" t="s">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A264" t="s">
         <v>17</v>
       </c>
-      <c r="B264" s="0" t="n">
+      <c r="B264">
         <v>9</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="0" t="s">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A265" t="s">
         <v>17</v>
       </c>
-      <c r="B265" s="0" t="n">
+      <c r="B265">
         <v>35</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="0" t="s">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A266" t="s">
         <v>17</v>
       </c>
-      <c r="B266" s="0" t="n">
+      <c r="B266">
         <v>37</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="0" t="s">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A267" t="s">
         <v>17</v>
       </c>
-      <c r="B267" s="0" t="n">
+      <c r="B267">
         <v>44</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="0" t="s">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A268" t="s">
         <v>17</v>
       </c>
-      <c r="B268" s="0" t="n">
+      <c r="B268">
         <v>45</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="0" t="s">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A269" t="s">
         <v>17</v>
       </c>
-      <c r="B269" s="0" t="n">
+      <c r="B269">
         <v>46</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="0" t="s">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A270" t="s">
         <v>17</v>
       </c>
-      <c r="B270" s="0" t="n">
+      <c r="B270">
         <v>49</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="0" t="s">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A271" t="s">
         <v>17</v>
       </c>
-      <c r="B271" s="0" t="n">
+      <c r="B271">
         <v>57</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="0" t="s">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A272" t="s">
         <v>17</v>
       </c>
-      <c r="B272" s="0" t="n">
+      <c r="B272">
         <v>52</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="0" t="s">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A273" t="s">
         <v>17</v>
       </c>
-      <c r="B273" s="0" t="n">
+      <c r="B273">
         <v>81</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="0" t="s">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A274" t="s">
         <v>17</v>
       </c>
-      <c r="B274" s="0" t="n">
+      <c r="B274">
         <v>82</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="0" t="s">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A275" t="s">
         <v>17</v>
       </c>
-      <c r="B275" s="0" t="n">
+      <c r="B275">
         <v>83</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="0" t="s">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A276" t="s">
         <v>17</v>
       </c>
-      <c r="B276" s="0" t="n">
+      <c r="B276">
         <v>84</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="0" t="s">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A277" t="s">
         <v>17</v>
       </c>
-      <c r="B277" s="0" t="n">
+      <c r="B277">
         <v>228</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="0" t="s">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A278" t="s">
         <v>17</v>
       </c>
-      <c r="B278" s="0" t="n">
+      <c r="B278">
         <v>234</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="0" t="s">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A279" t="s">
         <v>17</v>
       </c>
-      <c r="B279" s="0" t="n">
+      <c r="B279">
         <v>235</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="0" t="s">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A280" t="s">
         <v>17</v>
       </c>
-      <c r="B280" s="0" t="n">
+      <c r="B280">
         <v>248</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B281" s="0" t="n">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A281" t="s">
+        <v>18</v>
+      </c>
+      <c r="B281">
         <v>2</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B282" s="0" t="n">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A282" t="s">
+        <v>18</v>
+      </c>
+      <c r="B282">
         <v>9</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B283" s="0" t="n">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A283" t="s">
+        <v>18</v>
+      </c>
+      <c r="B283">
         <v>35</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B284" s="0" t="n">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A284" t="s">
+        <v>18</v>
+      </c>
+      <c r="B284">
         <v>37</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B285" s="0" t="n">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A285" t="s">
+        <v>18</v>
+      </c>
+      <c r="B285">
         <v>44</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B286" s="0" t="n">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A286" t="s">
+        <v>18</v>
+      </c>
+      <c r="B286">
         <v>45</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B287" s="0" t="n">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A287" t="s">
+        <v>18</v>
+      </c>
+      <c r="B287">
         <v>46</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B288" s="0" t="n">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A288" t="s">
+        <v>18</v>
+      </c>
+      <c r="B288">
         <v>49</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B289" s="0" t="n">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A289" t="s">
+        <v>18</v>
+      </c>
+      <c r="B289">
         <v>51</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B290" s="0" t="n">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A290" t="s">
+        <v>18</v>
+      </c>
+      <c r="B290">
         <v>52</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B291" s="0" t="n">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A291" t="s">
+        <v>18</v>
+      </c>
+      <c r="B291">
         <v>57</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B292" s="0" t="n">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A292" t="s">
+        <v>18</v>
+      </c>
+      <c r="B292">
         <v>81</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B293" s="0" t="n">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A293" t="s">
+        <v>18</v>
+      </c>
+      <c r="B293">
         <v>82</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B294" s="0" t="n">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A294" t="s">
+        <v>18</v>
+      </c>
+      <c r="B294">
         <v>83</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B295" s="0" t="n">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A295" t="s">
+        <v>18</v>
+      </c>
+      <c r="B295">
         <v>84</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B296" s="0" t="n">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A296" t="s">
+        <v>18</v>
+      </c>
+      <c r="B296">
         <v>228</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B297" s="0" t="n">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A297" t="s">
+        <v>18</v>
+      </c>
+      <c r="B297">
         <v>234</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B298" s="0" t="n">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A298" t="s">
+        <v>18</v>
+      </c>
+      <c r="B298">
         <v>235</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B299" s="0" t="n">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A299" t="s">
+        <v>18</v>
+      </c>
+      <c r="B299">
         <v>237</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B300" s="0" t="n">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A300" t="s">
+        <v>18</v>
+      </c>
+      <c r="B300">
         <v>248</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B301" s="0" t="n">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A301" t="s">
+        <v>18</v>
+      </c>
+      <c r="B301">
         <v>72</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B302" s="0" t="n">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A302" t="s">
+        <v>18</v>
+      </c>
+      <c r="B302">
         <v>218</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B303" s="0" t="n">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A303" t="s">
+        <v>18</v>
+      </c>
+      <c r="B303">
         <v>219</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B304" s="0" t="n">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A304" t="s">
+        <v>18</v>
+      </c>
+      <c r="B304">
         <v>267</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B305" s="0" t="n">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A305" t="s">
+        <v>18</v>
+      </c>
+      <c r="B305">
         <v>275</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B306" s="0" t="n">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A306" t="s">
+        <v>18</v>
+      </c>
+      <c r="B306">
         <v>310</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B307" s="0" t="n">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A307" t="s">
+        <v>18</v>
+      </c>
+      <c r="B307">
         <v>355</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B308" s="0" t="n">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A308" t="s">
+        <v>18</v>
+      </c>
+      <c r="B308">
         <v>357</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B309" s="0" t="n">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A309" t="s">
+        <v>18</v>
+      </c>
+      <c r="B309">
         <v>387</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B310" s="0" t="n">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A310" t="s">
+        <v>18</v>
+      </c>
+      <c r="B310">
         <v>420</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B311" s="0" t="n">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A311" t="s">
+        <v>18</v>
+      </c>
+      <c r="B311">
         <v>423</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B312" s="0" t="n">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A312" t="s">
+        <v>18</v>
+      </c>
+      <c r="B312">
         <v>74</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B313" s="0" t="n">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A313" t="s">
+        <v>18</v>
+      </c>
+      <c r="B313">
         <v>75</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B314" s="0" t="n">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A314" t="s">
+        <v>18</v>
+      </c>
+      <c r="B314">
         <v>76</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B315" s="0" t="n">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A315" t="s">
+        <v>18</v>
+      </c>
+      <c r="B315">
         <v>77</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B316" s="0" t="n">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A316" t="s">
+        <v>18</v>
+      </c>
+      <c r="B316">
         <v>78</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B317" s="0" t="n">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A317" t="s">
+        <v>18</v>
+      </c>
+      <c r="B317">
         <v>79</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B318" s="0" t="n">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A318" t="s">
+        <v>18</v>
+      </c>
+      <c r="B318">
         <v>80</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="0" t="s">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A319" t="s">
         <v>19</v>
       </c>
-      <c r="B319" s="0" t="n">
+      <c r="B319">
         <v>5</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="0" t="s">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A320" t="s">
         <v>19</v>
       </c>
-      <c r="B320" s="0" t="n">
+      <c r="B320">
         <v>23</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="0" t="s">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A321" t="s">
         <v>19</v>
       </c>
-      <c r="B321" s="0" t="n">
+      <c r="B321">
         <v>26</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="0" t="s">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A322" t="s">
         <v>19</v>
       </c>
-      <c r="B322" s="0" t="n">
+      <c r="B322">
         <v>36</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="0" t="s">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A323" t="s">
         <v>19</v>
       </c>
-      <c r="B323" s="0" t="n">
+      <c r="B323">
         <v>66</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="0" t="s">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A324" t="s">
         <v>19</v>
       </c>
-      <c r="B324" s="0" t="n">
+      <c r="B324">
         <v>70</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="0" t="s">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A325" t="s">
         <v>19</v>
       </c>
-      <c r="B325" s="0" t="n">
+      <c r="B325">
         <v>72</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="0" t="s">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A326" t="s">
         <v>19</v>
       </c>
-      <c r="B326" s="0" t="n">
+      <c r="B326">
         <v>275</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="0" t="s">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A327" t="s">
         <v>19</v>
       </c>
-      <c r="B327" s="0" t="n">
+      <c r="B327">
         <v>29</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="0" t="s">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A328" t="s">
         <v>19</v>
       </c>
-      <c r="B328" s="0" t="n">
+      <c r="B328">
         <v>227</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="0" t="s">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A329" t="s">
         <v>19</v>
       </c>
-      <c r="B329" s="0" t="n">
+      <c r="B329">
         <v>486</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="0" t="s">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A330" t="s">
         <v>19</v>
       </c>
-      <c r="B330" s="0" t="n">
+      <c r="B330">
         <v>396</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="0" t="s">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A331" t="s">
         <v>20</v>
       </c>
-      <c r="B331" s="0" t="n">
+      <c r="B331">
         <v>2</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="0" t="s">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A332" t="s">
         <v>20</v>
       </c>
-      <c r="B332" s="0" t="n">
+      <c r="B332">
         <v>9</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="0" t="s">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A333" t="s">
         <v>20</v>
       </c>
-      <c r="B333" s="0" t="n">
+      <c r="B333">
         <v>35</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="0" t="s">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A334" t="s">
         <v>20</v>
       </c>
-      <c r="B334" s="0" t="n">
+      <c r="B334">
         <v>37</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="0" t="s">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A335" t="s">
         <v>20</v>
       </c>
-      <c r="B335" s="0" t="n">
+      <c r="B335">
         <v>44</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="0" t="s">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A336" t="s">
         <v>20</v>
       </c>
-      <c r="B336" s="0" t="n">
+      <c r="B336">
         <v>45</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="0" t="s">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A337" t="s">
         <v>20</v>
       </c>
-      <c r="B337" s="0" t="n">
+      <c r="B337">
         <v>46</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="0" t="s">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A338" t="s">
         <v>20</v>
       </c>
-      <c r="B338" s="0" t="n">
+      <c r="B338">
         <v>49</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="0" t="s">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A339" t="s">
         <v>20</v>
       </c>
-      <c r="B339" s="0" t="n">
+      <c r="B339">
         <v>52</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="0" t="s">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A340" t="s">
         <v>20</v>
       </c>
-      <c r="B340" s="0" t="n">
+      <c r="B340">
         <v>57</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="0" t="s">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A341" t="s">
         <v>20</v>
       </c>
-      <c r="B341" s="0" t="n">
+      <c r="B341">
         <v>72</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="0" t="s">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A342" t="s">
         <v>20</v>
       </c>
-      <c r="B342" s="0" t="n">
+      <c r="B342">
         <v>75</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="0" t="s">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A343" t="s">
         <v>20</v>
       </c>
-      <c r="B343" s="0" t="n">
+      <c r="B343">
         <v>81</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="0" t="s">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A344" t="s">
         <v>20</v>
       </c>
-      <c r="B344" s="0" t="n">
+      <c r="B344">
         <v>82</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="0" t="s">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A345" t="s">
         <v>20</v>
       </c>
-      <c r="B345" s="0" t="n">
+      <c r="B345">
         <v>83</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="0" t="s">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A346" t="s">
         <v>20</v>
       </c>
-      <c r="B346" s="0" t="n">
+      <c r="B346">
         <v>84</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="0" t="s">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A347" t="s">
         <v>20</v>
       </c>
-      <c r="B347" s="0" t="n">
+      <c r="B347">
         <v>218</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="0" t="s">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A348" t="s">
         <v>20</v>
       </c>
-      <c r="B348" s="0" t="n">
+      <c r="B348">
         <v>228</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="0" t="s">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A349" t="s">
         <v>20</v>
       </c>
-      <c r="B349" s="0" t="n">
+      <c r="B349">
         <v>234</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="0" t="s">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A350" t="s">
         <v>20</v>
       </c>
-      <c r="B350" s="0" t="n">
+      <c r="B350">
         <v>235</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="0" t="s">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A351" t="s">
         <v>20</v>
       </c>
-      <c r="B351" s="0" t="n">
+      <c r="B351">
         <v>248</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="0" t="s">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A352" t="s">
         <v>20</v>
       </c>
-      <c r="B352" s="0" t="n">
+      <c r="B352">
         <v>267</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="0" t="s">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A353" t="s">
         <v>20</v>
       </c>
-      <c r="B353" s="0" t="n">
+      <c r="B353">
         <v>275</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="0" t="s">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A354" t="s">
         <v>20</v>
       </c>
-      <c r="B354" s="0" t="n">
+      <c r="B354">
         <v>310</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="0" t="s">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A355" t="s">
         <v>20</v>
       </c>
-      <c r="B355" s="0" t="n">
+      <c r="B355">
         <v>355</v>
       </c>
     </row>
-    <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="0" t="s">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A356" t="s">
         <v>20</v>
       </c>
-      <c r="B356" s="0" t="n">
+      <c r="B356">
         <v>357</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="0" t="s">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A357" t="s">
         <v>20</v>
       </c>
-      <c r="B357" s="0" t="n">
+      <c r="B357">
         <v>387</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="0" t="s">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A358" t="s">
         <v>20</v>
       </c>
-      <c r="B358" s="0" t="n">
+      <c r="B358">
         <v>420</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="0" t="s">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A359" t="s">
         <v>20</v>
       </c>
-      <c r="B359" s="0" t="n">
+      <c r="B359">
         <v>423</v>
       </c>
     </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A360" t="s">
+        <v>21</v>
+      </c>
+      <c r="B360">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A361" t="s">
+        <v>21</v>
+      </c>
+      <c r="B361">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A362" t="s">
+        <v>21</v>
+      </c>
+      <c r="B362">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A363" t="s">
+        <v>21</v>
+      </c>
+      <c r="B363">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A364" t="s">
+        <v>21</v>
+      </c>
+      <c r="B364">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A365" t="s">
+        <v>21</v>
+      </c>
+      <c r="B365">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A366" t="s">
+        <v>21</v>
+      </c>
+      <c r="B366">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A367" t="s">
+        <v>21</v>
+      </c>
+      <c r="B367">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A368" t="s">
+        <v>21</v>
+      </c>
+      <c r="B368">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A369" t="s">
+        <v>21</v>
+      </c>
+      <c r="B369">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A370" t="s">
+        <v>21</v>
+      </c>
+      <c r="B370">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A371" t="s">
+        <v>21</v>
+      </c>
+      <c r="B371">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A372" t="s">
+        <v>21</v>
+      </c>
+      <c r="B372">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A373" t="s">
+        <v>21</v>
+      </c>
+      <c r="B373">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A374" t="s">
+        <v>21</v>
+      </c>
+      <c r="B374">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A375" t="s">
+        <v>21</v>
+      </c>
+      <c r="B375">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A376" t="s">
+        <v>21</v>
+      </c>
+      <c r="B376">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A377" t="s">
+        <v>21</v>
+      </c>
+      <c r="B377">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A378" t="s">
+        <v>21</v>
+      </c>
+      <c r="B378">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A379" t="s">
+        <v>21</v>
+      </c>
+      <c r="B379">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A380" t="s">
+        <v>21</v>
+      </c>
+      <c r="B380">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A381" t="s">
+        <v>21</v>
+      </c>
+      <c r="B381">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A382" t="s">
+        <v>21</v>
+      </c>
+      <c r="B382">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A383" t="s">
+        <v>21</v>
+      </c>
+      <c r="B383">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A384" t="s">
+        <v>21</v>
+      </c>
+      <c r="B384">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A385" t="s">
+        <v>21</v>
+      </c>
+      <c r="B385">
+        <v>423</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>